--- a/NearestNeighbor/Report/ResultsData.xlsx
+++ b/NearestNeighbor/Report/ResultsData.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/84f5e1967770b9b9/School/CSCI447/CSCI447Git/CSCI447/NearestNeighbor/Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy-\OneDrive\School\CSCI447\CSCI447Git\CSCI447\NearestNeighbor\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{8095913D-70AB-4989-BE45-0385344AD1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{922E2884-7AD0-4030-9C8E-844A0FE8C417}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{8095913D-70AB-4989-BE45-0385344AD1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA511284-2186-4310-8AE8-CD51A47A5419}"/>
   <bookViews>
-    <workbookView xWindow="-7980" yWindow="2475" windowWidth="16740" windowHeight="11385" xr2:uid="{93E21019-30F9-4E63-BBA2-556FA64EC614}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="16740" windowHeight="11385" xr2:uid="{93E21019-30F9-4E63-BBA2-556FA64EC614}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CTuning" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparisons" sheetId="2" r:id="rId2"/>
+    <sheet name="KTuning" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
   <si>
     <t>Classification</t>
   </si>
@@ -104,6 +106,54 @@
   <si>
     <t>#ENN + 10%</t>
   </si>
+  <si>
+    <t>K = sqrt(N)</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>K-NN</t>
+  </si>
+  <si>
+    <t>E-NN</t>
+  </si>
+  <si>
+    <t>C-NN</t>
+  </si>
+  <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>ABALONE</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>SEGMENTATION</t>
+  </si>
+  <si>
+    <t>FOREST FIRES</t>
+  </si>
+  <si>
+    <t>REGRESSION</t>
+  </si>
+  <si>
+    <t>MACHINE</t>
+  </si>
+  <si>
+    <t>Winequality-red</t>
+  </si>
+  <si>
+    <t>Winequality-white</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
@@ -138,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,7 +290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$6</c:f>
+              <c:f>CTuning!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -260,7 +311,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:f>CTuning!$Q$5:$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -277,7 +328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$S$6</c:f>
+              <c:f>CTuning!$Q$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -304,7 +355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$7</c:f>
+              <c:f>CTuning!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -325,7 +376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:f>CTuning!$Q$5:$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -342,7 +393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$7:$S$7</c:f>
+              <c:f>CTuning!$Q$7:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -560,6 +611,944 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CAR MSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$17:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1324.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8217.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-823C-4246-8580-6DD4CF6B7D00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608840672"/>
+        <c:axId val="608847560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608840672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608847560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608847560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608840672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MACHINE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$G$17:$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$H$17:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41DD-4DE1-AD66-CE6137E7EEC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637053528"/>
+        <c:axId val="637060744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637053528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637060744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637060744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637053528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MACHINE ME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$G$17:$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$I$17:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7AD-42CC-A70B-8F6A62C22771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637050248"/>
+        <c:axId val="637046640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637050248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637046640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637046640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637050248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -646,7 +1635,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$22</c:f>
+              <c:f>CTuning!$P$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -667,7 +1656,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$21:$S$21</c:f>
+              <c:f>CTuning!$Q$21:$S$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -684,7 +1673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$22:$S$22</c:f>
+              <c:f>CTuning!$Q$22:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -711,7 +1700,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$23</c:f>
+              <c:f>CTuning!$P$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -732,7 +1721,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$21:$S$21</c:f>
+              <c:f>CTuning!$Q$21:$S$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -749,7 +1738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$23:$S$23</c:f>
+              <c:f>CTuning!$Q$23:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1053,7 +2042,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$39</c:f>
+              <c:f>CTuning!$P$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1074,7 +2063,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$38:$S$38</c:f>
+              <c:f>CTuning!$Q$38:$S$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1091,7 +2080,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$39:$S$39</c:f>
+              <c:f>CTuning!$Q$39:$S$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1118,7 +2107,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$40</c:f>
+              <c:f>CTuning!$P$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1139,7 +2128,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$38:$S$38</c:f>
+              <c:f>CTuning!$Q$38:$S$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1156,7 +2145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$40:$S$40</c:f>
+              <c:f>CTuning!$Q$40:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1413,7 +2402,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs #CLusters</a:t>
+              <a:t> vs #Clusters</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1460,7 +2449,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$55</c:f>
+              <c:f>CTuning!$P$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1481,7 +2470,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$54:$S$54</c:f>
+              <c:f>CTuning!$Q$54:$S$54</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1498,7 +2487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$55:$S$55</c:f>
+              <c:f>CTuning!$Q$55:$S$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1525,7 +2514,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$56</c:f>
+              <c:f>CTuning!$P$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1546,7 +2535,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$54:$S$54</c:f>
+              <c:f>CTuning!$Q$54:$S$54</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1563,7 +2552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$56:$S$56</c:f>
+              <c:f>CTuning!$Q$56:$S$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1816,434 +2805,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cars</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Accuracy vs #Clusters</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CMEANS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$Q$68:$S$70</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>#ENN - 10%</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#ENN</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#ENN + 10%</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>car.csv</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Accuracy</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$71:$S$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.22220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22220000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8510-4BBF-8BF0-3073932F29E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CMEDOIDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$Q$68:$S$70</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>#ENN - 10%</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#ENN</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#ENN + 10%</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>car.csv</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Accuracy</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$72:$S$72</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.90680000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92820000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9294</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8510-4BBF-8BF0-3073932F29E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="366065160"/>
-        <c:axId val="366069752"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="366065160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366069752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="366069752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="366065160"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cars Accuracy vs #Clusters</a:t>
+              <a:t>Cars MSE vs #Clusters</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2289,7 +2851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$86</c:f>
+              <c:f>CTuning!$P$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2310,7 +2872,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$85:$S$85</c:f>
+              <c:f>CTuning!$Q$85:$S$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2327,7 +2889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$86:$S$86</c:f>
+              <c:f>CTuning!$Q$86:$S$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2354,7 +2916,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$87</c:f>
+              <c:f>CTuning!$P$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2375,7 +2937,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$85:$S$85</c:f>
+              <c:f>CTuning!$Q$85:$S$85</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2392,7 +2954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$87:$S$87</c:f>
+              <c:f>CTuning!$Q$87:$S$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2610,7 +3172,1499 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cars Accuracy vs #Clusters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$70:$S$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$71:$S$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-851C-4471-BDDE-CC525ED2E459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEDOIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$70:$S$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$72:$S$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.90680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-851C-4471-BDDE-CC525ED2E459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="465222424"/>
+        <c:axId val="465221112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="465222424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465221112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465221112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465222424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ABALONE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ACCURACY</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACCURACY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8BB-4AE5-9076-ADD7EF31CD24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608831488"/>
+        <c:axId val="608832144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608831488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608832144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608832144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608831488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ABALONE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>218.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6893.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6893.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BDE-4056-9C93-3AC87D893E48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608844608"/>
+        <c:axId val="608846576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608844608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608846576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608846576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608844608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CAR ACCURACY</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACCURACY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$17:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93289999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92879999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FC6-485E-A629-D8CF25AF1B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608835752"/>
+        <c:axId val="608833128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608835752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608833128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608833128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608835752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2850,6 +4904,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3353,7 +5527,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3856,7 +6030,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4359,7 +6533,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4862,7 +7036,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5365,7 +7539,3025 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6017,22 +11209,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>196453</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>98821</xdr:rowOff>
+      <xdr:colOff>279797</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>158352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>517922</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>175021</xdr:rowOff>
+      <xdr:colOff>601266</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>44052</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAB00DB-82AC-4505-8A29-FD8A8B3E87E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C38539-5017-478E-8B92-B76ED0F531A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6053,22 +11245,243 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>279797</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>158352</xdr:rowOff>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>122634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>601266</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>44052</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>8334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C38539-5017-478E-8B92-B76ED0F531A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E83A773-3A63-4BE4-94FD-C1136293402C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9610276-50D6-4CE3-8F66-EE370DCFAFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6246B00-9B1F-4479-988F-35EB595D0D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1267C65-CC67-4CF3-917B-0F77C35C1381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78342FA7-3A9E-4407-9866-6379CA530C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2AF155-A7DD-4380-A0F2-7169184CD579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9196D1F-C46F-4C3A-947D-23A3F1945CA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6388,8 +11801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433BB82-3D2C-487A-B15C-7541701E7666}">
   <dimension ref="C2:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC85" sqref="AC85"/>
+    <sheetView tabSelected="1" topLeftCell="O22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S78" sqref="S78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7262,4 +12675,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5D5A4B-3DA8-4AAC-95FB-04EDCFFE9A0F}">
+  <dimension ref="B2:I39"/>
+  <sheetViews>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>218.05</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>4238.8999999999996</v>
+      </c>
+      <c r="I6">
+        <v>-12.65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="D7">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>4236.26</v>
+      </c>
+      <c r="I7">
+        <v>-12.67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="D8">
+        <v>195.23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>4248.17</v>
+      </c>
+      <c r="I8">
+        <v>-12.57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D9">
+        <v>6893.59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D10">
+        <v>6893.59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="D17">
+        <v>9.6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I17">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="D18">
+        <v>12.83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18">
+        <v>2.06</v>
+      </c>
+      <c r="I18">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="D19">
+        <v>1324.4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I19">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D20">
+        <v>8217.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="D21">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D26">
+        <v>2.11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="D27">
+        <v>2.67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>20.74</v>
+      </c>
+      <c r="I27">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>7.77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>20.74</v>
+      </c>
+      <c r="I28">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="D29">
+        <v>56.37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>20.74</v>
+      </c>
+      <c r="I29">
+        <v>-4.25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="D30">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I37">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I38">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I39">
+        <v>-4.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E95DD6-DBE5-4782-8749-38836DD04E27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NearestNeighbor/Report/ResultsData.xlsx
+++ b/NearestNeighbor/Report/ResultsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy-\OneDrive\School\CSCI447\CSCI447Git\CSCI447\NearestNeighbor\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{8095913D-70AB-4989-BE45-0385344AD1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA511284-2186-4310-8AE8-CD51A47A5419}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="8_{8095913D-70AB-4989-BE45-0385344AD1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7774FDEA-3A7B-4D8A-AC77-71721A7BE4EC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="16740" windowHeight="11385" xr2:uid="{93E21019-30F9-4E63-BBA2-556FA64EC614}"/>
+    <workbookView xWindow="12450" yWindow="3450" windowWidth="21720" windowHeight="13170" firstSheet="1" activeTab="2" xr2:uid="{93E21019-30F9-4E63-BBA2-556FA64EC614}"/>
   </bookViews>
   <sheets>
     <sheet name="CTuning" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="42">
   <si>
     <t>Classification</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>sqrt(N)</t>
+  </si>
+  <si>
+    <t>winequality.csv</t>
   </si>
 </sst>
 </file>
@@ -646,6 +652,650 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>ABALONE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>218.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6893.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6893.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BDE-4056-9C93-3AC87D893E48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608844608"/>
+        <c:axId val="608846576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608844608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608846576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608846576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608844608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CAR ACCURACY</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACCURACY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$B$17:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>K-NN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>E-NN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C-NN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kmeans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.93289999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92879999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FC6-485E-A629-D8CF25AF1B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="608835752"/>
+        <c:axId val="608833128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608835752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608833128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608833128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608835752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>CAR MSE</a:t>
             </a:r>
           </a:p>
@@ -929,7 +1579,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1243,7 +1893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3609,6 +4259,819 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Segmentation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Accuracy vs #Clusters</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$101:$S$101</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$102:$S$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAE1-4983-A4E6-66C85568ED8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEDOIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$101:$S$101</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$103:$S$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83330000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAE1-4983-A4E6-66C85568ED8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="312255776"/>
+        <c:axId val="312262664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312255776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312262664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312262664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312255776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Segmentation MSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs #Clusters</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEANS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$119:$S$119</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$120:$S$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74B0-4864-9CF7-F8134AC90157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CTuning!$P$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMEDOIDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CTuning!$Q$119:$S$119</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#ENN - 10%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#ENN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#ENN + 10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CTuning!$Q$121:$S$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74B0-4864-9CF7-F8134AC90157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="632707064"/>
+        <c:axId val="632707720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="632707064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632707720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632707720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632707064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>ABALONE</a:t>
             </a:r>
             <a:r>
@@ -3900,650 +5363,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ABALONE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MSE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparisons!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparisons!$B$6:$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>K-NN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E-NN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C-NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kmeans</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparisons!$D$6:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>218.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>195.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6893.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6893.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BDE-4056-9C93-3AC87D893E48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="608844608"/>
-        <c:axId val="608846576"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="608844608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608846576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="608846576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608844608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CAR ACCURACY</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparisons!$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ACCURACY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Comparisons!$B$17:$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>K-NN</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>E-NN</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C-NN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Kmeans</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>PAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparisons!$C$17:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.93289999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.92090000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.62150000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92879999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FC6-485E-A629-D8CF25AF1B3F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="608835752"/>
-        <c:axId val="608833128"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="608835752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608833128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="608833128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608835752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4665,6 +5484,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7036,6 +7935,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -11273,6 +13178,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255984</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>39290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>577453</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>115490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{915AF7E4-EF0D-4533-A06C-A8827DE2E92A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>15478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>91678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AFD0FD-92AB-4928-B7B0-57ED103AC41C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11799,10 +13776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B433BB82-3D2C-487A-B15C-7541701E7666}">
-  <dimension ref="C2:S87"/>
+  <dimension ref="C2:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S78" sqref="S78"/>
+    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12671,6 +14648,112 @@
         <v>10.55</v>
       </c>
     </row>
+    <row r="99" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P99" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>8</v>
+      </c>
+      <c r="S99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P101" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>2</v>
+      </c>
+      <c r="R101" t="s">
+        <v>1</v>
+      </c>
+      <c r="S101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P102" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="S102" s="1">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="103" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P103" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P117" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>8</v>
+      </c>
+      <c r="S117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P119" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>2</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1</v>
+      </c>
+      <c r="S119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P120" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q120">
+        <v>56.37</v>
+      </c>
+      <c r="R120">
+        <v>56.37</v>
+      </c>
+      <c r="S120">
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="121" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P121" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q121">
+        <v>6.46</v>
+      </c>
+      <c r="R121">
+        <v>2.71</v>
+      </c>
+      <c r="S121">
+        <v>2.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12681,7 +14764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5D5A4B-3DA8-4AAC-95FB-04EDCFFE9A0F}">
   <dimension ref="B2:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -13135,15 +15218,920 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E95DD6-DBE5-4782-8749-38836DD04E27}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>202.39</v>
+      </c>
+      <c r="I8">
+        <v>218.05</v>
+      </c>
+      <c r="J8">
+        <v>231.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.2525</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>317.47000000000003</v>
+      </c>
+      <c r="I9">
+        <v>323</v>
+      </c>
+      <c r="J9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>177.06</v>
+      </c>
+      <c r="I10">
+        <v>195.23</v>
+      </c>
+      <c r="J10">
+        <v>202.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>6893.59</v>
+      </c>
+      <c r="I11">
+        <v>6893.59</v>
+      </c>
+      <c r="J11">
+        <v>6893.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>6893.59</v>
+      </c>
+      <c r="I12">
+        <v>6893.59</v>
+      </c>
+      <c r="J12">
+        <v>6893.59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>10.95</v>
+      </c>
+      <c r="I22">
+        <v>9.6</v>
+      </c>
+      <c r="J22">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23">
+        <v>13.67</v>
+      </c>
+      <c r="I23">
+        <v>12.83</v>
+      </c>
+      <c r="J23">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>883.45</v>
+      </c>
+      <c r="I24">
+        <v>1324.4</v>
+      </c>
+      <c r="J24">
+        <v>998.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25">
+        <v>8217.6</v>
+      </c>
+      <c r="I25">
+        <v>8217.6</v>
+      </c>
+      <c r="J25">
+        <v>8217.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>13.75</v>
+      </c>
+      <c r="I26">
+        <v>11.3</v>
+      </c>
+      <c r="J26">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>2.11</v>
+      </c>
+      <c r="I35">
+        <v>2.11</v>
+      </c>
+      <c r="J35">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36">
+        <v>2.19</v>
+      </c>
+      <c r="I36">
+        <v>2.67</v>
+      </c>
+      <c r="J36">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>6.09</v>
+      </c>
+      <c r="I37">
+        <v>7.77</v>
+      </c>
+      <c r="J37">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38">
+        <v>56.37</v>
+      </c>
+      <c r="I38">
+        <v>56.37</v>
+      </c>
+      <c r="J38">
+        <v>56.37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>2.57</v>
+      </c>
+      <c r="I39">
+        <v>2.14</v>
+      </c>
+      <c r="J39">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>4239.7</v>
+      </c>
+      <c r="D48">
+        <v>4238.8999999999996</v>
+      </c>
+      <c r="E48">
+        <v>4238.22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48">
+        <v>-12.64</v>
+      </c>
+      <c r="I48">
+        <v>-12.65</v>
+      </c>
+      <c r="J48">
+        <v>-12.67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>4235.71</v>
+      </c>
+      <c r="D49">
+        <v>4236.26</v>
+      </c>
+      <c r="E49">
+        <v>4238.24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>-12.72</v>
+      </c>
+      <c r="I49">
+        <v>-12.67</v>
+      </c>
+      <c r="J49">
+        <v>-12.65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>4238.7</v>
+      </c>
+      <c r="D50">
+        <v>4248.17</v>
+      </c>
+      <c r="E50">
+        <v>4238.87</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>-12.66</v>
+      </c>
+      <c r="I50">
+        <v>-12.57</v>
+      </c>
+      <c r="J50">
+        <v>-12.63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>39</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>2.08</v>
+      </c>
+      <c r="D63">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E63">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>-0.5</v>
+      </c>
+      <c r="I63">
+        <v>-0.5</v>
+      </c>
+      <c r="J63">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D64">
+        <v>2.06</v>
+      </c>
+      <c r="E64">
+        <v>2.06</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>-0.51</v>
+      </c>
+      <c r="I64">
+        <v>-0.51</v>
+      </c>
+      <c r="J64">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D65">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E65">
+        <v>2.06</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>-0.51</v>
+      </c>
+      <c r="I65">
+        <v>-0.51</v>
+      </c>
+      <c r="J65">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D77">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E77">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77">
+        <v>-4.09</v>
+      </c>
+      <c r="I77">
+        <v>-4.09</v>
+      </c>
+      <c r="J77">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D78">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E78">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78">
+        <v>-4.09</v>
+      </c>
+      <c r="I78">
+        <v>-4.09</v>
+      </c>
+      <c r="J78">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="D79">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E79">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>-4.09</v>
+      </c>
+      <c r="I79">
+        <v>-4.09</v>
+      </c>
+      <c r="J79">
+        <v>-4.09</v>
       </c>
     </row>
   </sheetData>
